--- a/P0_Hello_to_RoSA/Orders.xlsx
+++ b/P0_Hello_to_RoSA/Orders.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9496A53E-AECC-4ADE-99F5-51E9CC211EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139AE5D9-48B0-4F33-8EBA-7489BE483E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Aaron Lao</t>
+  </si>
+  <si>
+    <t>Clientname</t>
+  </si>
+  <si>
+    <t>Brian Reeves</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +351,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/P0_Hello_to_RoSA/Orders.xlsx
+++ b/P0_Hello_to_RoSA/Orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139AE5D9-48B0-4F33-8EBA-7489BE483E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26739DF-96C2-49FC-B80C-0FCA3E28172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6048" yWindow="192" windowWidth="11808" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Aaron Lao</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Clientname</t>
   </si>
   <si>
-    <t>Brian Reeves</t>
+    <t>items</t>
+  </si>
+  <si>
+    <t>quantities</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iphone </t>
+  </si>
+  <si>
+    <t>Coke</t>
   </si>
 </sst>
 </file>
@@ -351,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,19 +377,50 @@
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/P0_Hello_to_RoSA/Orders.xlsx
+++ b/P0_Hello_to_RoSA/Orders.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\alao_p0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A601C8FA-F5B8-4494-8B9C-D507C442F12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E5743-4452-4F2A-8F4C-76B192D7606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6396" yWindow="540" windowWidth="11808" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20590" yWindow="-110" windowWidth="20700" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,22 +30,22 @@
     <t>Clientname</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>items</t>
   </si>
   <si>
-    <t>quantities</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>T-shirt</t>
-  </si>
-  <si>
-    <t>Prices</t>
-  </si>
-  <si>
-    <t>cok</t>
+    <t>Quantities</t>
+  </si>
+  <si>
+    <t>Item status</t>
+  </si>
+  <si>
+    <t>Client get</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
   </si>
 </sst>
 </file>
@@ -81,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,48 +364,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/P0_Hello_to_RoSA/Orders.xlsx
+++ b/P0_Hello_to_RoSA/Orders.xlsx
@@ -5,20 +5,29 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E5743-4452-4F2A-8F4C-76B192D7606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0381CC-FBF1-476B-9BC3-34A8771B69D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20590" yWindow="-110" windowWidth="20700" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4776" yWindow="1428" windowWidth="12420" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -367,7 +376,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,7 +384,7 @@
     <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>

--- a/P0_Hello_to_RoSA/Orders.xlsx
+++ b/P0_Hello_to_RoSA/Orders.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0381CC-FBF1-476B-9BC3-34A8771B69D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="4776" yWindow="1428" windowWidth="12420" windowHeight="10092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="4776" yWindow="1428" windowWidth="12420" windowHeight="10092" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -28,86 +29,138 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Clientname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>Quantities</t>
-  </si>
-  <si>
-    <t>Item status</t>
-  </si>
-  <si>
-    <t>Client get</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <x:si>
+    <x:t>Clientname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>items</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quantities</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Item status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Client get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monitor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Got</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laptop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sum of Total cost:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8300</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,47 +425,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:G1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E12" sqref="E12 E12:E12"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.441406" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="3" width="9.109375" style="2" customWidth="1"/>
+    <x:col min="4" max="4" width="9.332031" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="18.886719" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="23.886719" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="9.332031" style="2" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="C2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G2" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="C3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="C4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="F5" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="E12" s="2" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/P0_Hello_to_RoSA/Orders.xlsx
+++ b/P0_Hello_to_RoSA/Orders.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_Lao-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77598196-8F87-402A-B9BB-759A162BD218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42640D98-EE27-4A7F-9F91-C1BFB09E14B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5532" yWindow="-6804" windowWidth="28572" windowHeight="19764" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bob" sheetId="4" r:id="rId1"/>
-    <sheet name="Customer List" sheetId="3" r:id="rId2"/>
-    <sheet name="June" sheetId="2" r:id="rId3"/>
-    <sheet name="Bill" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Customer List" sheetId="4" r:id="rId1"/>
+    <sheet name="Septhen Curry" sheetId="3" r:id="rId2"/>
+    <sheet name="Aaron Lao" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Client Name</t>
   </si>
@@ -46,6 +44,12 @@
     <t>Email Address</t>
   </si>
   <si>
+    <t>Septhen Curry</t>
+  </si>
+  <si>
+    <t>SC30@warriors.com</t>
+  </si>
+  <si>
     <t>items</t>
   </si>
   <si>
@@ -61,115 +65,79 @@
     <t>Total Cost</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>bob@mail.com</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Got</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1001.98</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>Got</t>
-  </si>
-  <si>
-    <t>44.85</t>
+    <t>614.85</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Sorry, Coke not found</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Sum of Total cost:</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>june@email.com</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>bill@mail.net</t>
-  </si>
-  <si>
-    <t>Junk</t>
-  </si>
-  <si>
-    <t>Sorry, Junk not found</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Item status</t>
-  </si>
-  <si>
-    <t>Client get</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>Watch</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>8300</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Brian@mail.net</t>
-  </si>
-  <si>
-    <t>Jo</t>
-  </si>
-  <si>
-    <t>Jo@mail.bis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email </t>
-  </si>
-  <si>
-    <t>aaron LAO</t>
-  </si>
-  <si>
-    <t>asd</t>
+    <t>1915.83</t>
   </si>
   <si>
     <t>Aaron Lao</t>
   </si>
   <si>
-    <t>aaron.lao@revature.net</t>
-  </si>
-  <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>stp@me.com</t>
+    <t>Aaron.lao@gmail.com</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Pant</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>363</t>
   </si>
 </sst>
 </file>
@@ -487,10 +455,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1652125-E513-4D12-AD7B-766FE8DB1DBC}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319878EB-CF75-474E-8A0D-6A1DC12B69B6}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A025C561-9BD5-4C71-8EBD-76580F84F479}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -502,27 +507,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -541,56 +546,56 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C65DE8-09A0-42AB-8C33-BED44E3F0FBB}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -599,126 +604,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8DE9EA-70EB-410F-ACFD-A7748CB3869E}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F2E0C3-F98B-46EC-80B3-C36BBB34AD49}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4640C4D-B755-459E-8265-1F08B768AE98}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12 E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -726,129 +622,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
